--- a/Data/Stage.xlsx
+++ b/Data/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="10560"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>Star3Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,18 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.09765625" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -504,6 +508,23 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
